--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,52 +701,56 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>GMHO:0000110</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>blinding investigator of intervention arm</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>A blinding process in which the investigators are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>blinding outcome assessor of intervention arm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1385,52 +1389,60 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>GMHO:0000116</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1593,52 +1605,56 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000118</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>part of wider study</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A textual entity that expressed that a study is part of a broader research project.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OBI:0500006</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>parallel group design</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1647,30 +1663,38 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000119</t>
+          <t>GMHO:0000121</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>pre-registered plan specification source</t>
+          <t>parallel randomised controlled trial design</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr"/>
@@ -1699,17 +1723,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000120</t>
+          <t>GMHO:0000118</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>publication year textual entity</t>
+          <t>part of wider study</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
+          <t>A textual entity that expressed that a study is part of a broader research project.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1749,112 +1773,104 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000119</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>pre-registered plan specification source</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>citation</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001263</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1863,27 +1879,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>qRCT, quasi-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1915,27 +1935,31 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sequential multiple randomised controlled trial design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1967,31 +1991,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t xml:space="preserve">repeated measure design </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2023,22 +2043,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OPMI:0000327</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>study status</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2075,27 +2095,31 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2124,6 +2148,110 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OPMI:0000327</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>study status</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2151,22 +2151,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPMI:0000327</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>study status</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2174,7 +2174,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2203,22 +2207,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2252,6 +2256,58 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Research methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA52B23-9715-48F9-9277-FFD1C77E94B7}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{421B6138-D7E3-4CD6-A4D3-829EB26A8494}"/>
   <bookViews>
-    <workbookView xWindow="47175" yWindow="105" windowWidth="20115" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -574,45 +574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -912,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,7 +1427,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>26</v>
@@ -1541,7 +1507,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>26</v>
@@ -2357,7 +2323,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2366,7 +2332,7 @@
       <c r="C36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="3" t="s">
         <v>145</v>
       </c>
       <c r="P36" s="3" t="s">

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Research methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{421B6138-D7E3-4CD6-A4D3-829EB26A8494}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E979DC55-B63A-419D-BC5C-AAD40A0C26A8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -488,6 +488,42 @@
   </si>
   <si>
     <t>Number of intervention participants who were randomly allocated to intervention arms within an intervention.</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>institutional identification</t>
+  </si>
+  <si>
+    <t>A textual entity intended to identify a particular institution.</t>
+  </si>
+  <si>
+    <t>IAO:0000303</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR2</t>
+  </si>
+  <si>
+    <t>LSR 2</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intervention evaluation study </t>
+  </si>
+  <si>
+    <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+  </si>
+  <si>
+    <t>research study</t>
+  </si>
+  <si>
+    <t>BCIO:038000</t>
+  </si>
+  <si>
+    <t>LSR 2; LSR 3</t>
   </si>
 </sst>
 </file>
@@ -548,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -574,11 +610,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -876,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,7 +1043,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>26</v>
@@ -1267,7 +1327,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>26</v>
@@ -1307,7 +1367,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>26</v>
@@ -1467,7 +1527,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>26</v>
@@ -1549,7 +1609,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>26</v>
@@ -1879,7 +1939,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>26</v>
@@ -1919,7 +1979,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>26</v>
@@ -1959,7 +2019,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>26</v>
@@ -2001,7 +2061,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>26</v>
@@ -2043,7 +2103,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>26</v>
@@ -2165,7 +2225,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>26</v>
@@ -2313,7 +2373,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>26</v>
@@ -2356,7 +2416,7 @@
         <v>151</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>26</v>
@@ -2405,7 +2465,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Research methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E979DC55-B63A-419D-BC5C-AAD40A0C26A8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_02D547A6DD3A50C5EFE7C4D2475ED87656CDBBF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{463B7EF1-05CC-450C-9C57-18FFE411FEDC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="1635" windowWidth="28725" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -220,33 +220,12 @@
     <t>"randomised controlled trial design" AND "cross over design"</t>
   </si>
   <si>
-    <t>OBI:0500028</t>
-  </si>
-  <si>
-    <t>exclusion criterion</t>
-  </si>
-  <si>
-    <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-  </si>
-  <si>
-    <t>eligibility criterion</t>
-  </si>
-  <si>
     <t>funding source declaration textual entity</t>
   </si>
   <si>
     <t>A textual entity documenting the source of funding that supported some study.</t>
   </si>
   <si>
-    <t>OBI:0500027</t>
-  </si>
-  <si>
-    <t>inclusion criterion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
-  </si>
-  <si>
     <t>ADDICTO:0001267</t>
   </si>
   <si>
@@ -478,18 +457,6 @@
     <t>language</t>
   </si>
   <si>
-    <t>number of intervention participants</t>
-  </si>
-  <si>
-    <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-  </si>
-  <si>
-    <t>number of randomised intervention participants</t>
-  </si>
-  <si>
-    <t>Number of intervention participants who were randomly allocated to intervention arms within an intervention.</t>
-  </si>
-  <si>
     <t>LSR 1; LSR 2; LSR 3</t>
   </si>
   <si>
@@ -524,6 +491,18 @@
   </si>
   <si>
     <t>LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>power calculation</t>
+  </si>
+  <si>
+    <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+  </si>
+  <si>
+    <t>data transformation</t>
+  </si>
+  <si>
+    <t>OBCS:0000024</t>
   </si>
 </sst>
 </file>
@@ -584,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -609,9 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" activeCellId="1" sqref="A15:XFD15 A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1019,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>26</v>
@@ -1083,7 +1059,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>26</v>
@@ -1123,7 +1099,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>26</v>
@@ -1165,7 +1141,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>26</v>
@@ -1205,7 +1181,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>26</v>
@@ -1245,7 +1221,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>26</v>
@@ -1285,7 +1261,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>26</v>
@@ -1327,7 +1303,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>26</v>
@@ -1344,7 +1320,7 @@
     </row>
     <row r="10" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
@@ -1367,7 +1343,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>26</v>
@@ -1407,7 +1383,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>26</v>
@@ -1447,7 +1423,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>26</v>
@@ -1462,98 +1438,100 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1567,7 +1545,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>26</v>
@@ -1593,23 +1571,25 @@
         <v>77</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>26</v>
@@ -1624,18 +1604,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1649,7 +1629,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>26</v>
@@ -1669,31 +1649,27 @@
         <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>26</v>
@@ -1708,72 +1684,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>26</v>
@@ -1799,21 +1777,25 @@
         <v>93</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>26</v>
@@ -1828,78 +1810,72 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>26</v>
@@ -1939,7 +1915,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>26</v>
@@ -1954,83 +1930,87 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2045,13 +2025,11 @@
         <v>113</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2061,7 +2039,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>26</v>
@@ -2076,24 +2054,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2103,7 +2079,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>26</v>
@@ -2118,22 +2094,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2143,7 +2121,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>26</v>
@@ -2158,32 +2136,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>26</v>
@@ -2209,13 +2189,11 @@
         <v>126</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2225,7 +2203,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>26</v>
@@ -2240,34 +2218,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>26</v>
@@ -2283,81 +2259,44 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="4" t="s">
+      <c r="B33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="4" t="s">
-        <v>139</v>
+      <c r="P34" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
         <v>28</v>
       </c>
@@ -2370,74 +2309,80 @@
         <v>143</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="Q38" s="6" t="s">
         <v>26</v>
       </c>
@@ -2445,74 +2390,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V41" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B41">
+  <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -2257,52 +2257,52 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>IAO:0000640</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>related work textual entity</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,236 +1789,240 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>OBI:0500006</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>parallel group design</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000121</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>parallel randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>OBCS:0000024</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>power calculation</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>data transformation</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000119</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>pre-registered plan specification source</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2027,22 +2031,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2083,22 +2087,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000120</t>
+          <t>GMHO:0000118</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>publication year textual entity</t>
+          <t>publication from same research project</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2137,60 +2141,56 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2199,17 +2199,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2221,7 +2221,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2259,27 +2259,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2293,7 +2297,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
@@ -2311,22 +2319,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2342,14 +2350,10 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
@@ -2367,22 +2371,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sequential multiple randomised controlled trial design</t>
+          <t xml:space="preserve">repeated measure design </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2423,31 +2427,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2458,7 +2458,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -2483,34 +2483,34 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OBI:0500000</t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2543,22 +2543,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPMI:0000327</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>study status</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2566,7 +2566,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2599,22 +2603,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2630,7 +2634,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2655,22 +2659,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2686,7 +2690,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2703,6 +2707,66 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -1449,52 +1449,56 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000171</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>language of document</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Language that is used to express the information in a document.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is the language used to express the information in a document.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1789,60 +1793,60 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -721,7 +721,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which sources deliverying the intervention are not informed about which of two or more interventions they are deliverying until after an endpoint has been reached.</t>
+          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -547,30 +547,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GMHO:0000170</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>author email address textual entity</t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the email address of an author of a publication.</t>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -578,7 +586,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -587,7 +595,11 @@
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
@@ -597,56 +609,52 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000107</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>author identification</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GMHO:0000170</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>author email address textual entity</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the email address of an author of a publication.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -655,22 +663,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000108</t>
+          <t>GMHO:0000107</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>blinding data analysts of intervention arm</t>
+          <t>author identification</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
+          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>blinding process</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -686,7 +694,7 @@
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -711,17 +719,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000109</t>
+          <t>GMHO:0000108</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>blinding intervention source about intervention arm</t>
+          <t>blinding data analysts of intervention arm</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
+          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -765,116 +773,116 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000109</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>blinding intervention source about intervention arm</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>blinding process</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>GMHO:0000110</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>blinding outcome assessor of intervention arm</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000111</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>blinding participant about intervention arm</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>blinding process</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -883,22 +891,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000112</t>
+          <t>GMHO:0000111</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>blinding participant about intervention arm</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>blinding process</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -937,56 +945,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001257</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>case-control study design</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>non-interventional study design</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000112</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>blinding process</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -995,31 +1003,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADDICTO:0001277</t>
+          <t>ADDICTO:0001257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cluster randomised controlled trial design</t>
+          <t>case-control study design</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
+          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1030,7 +1034,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1055,27 +1059,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>ADDICTO:0001277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>cluster randomised controlled trial design</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>geographical location</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1086,7 +1094,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1111,22 +1119,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001255 </t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cross over design</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>mixed study design</t>
+          <t>geographical location</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1142,7 +1150,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1165,112 +1173,116 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001255 </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cross over design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mixed study design</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000114</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>cross over randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "cross over design"</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IAO:0000624</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>funding source declaration textual entity</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1279,17 +1291,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IAO:0000303</t>
+          <t>IAO:0000624</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>institutional identification</t>
+          <t>funding source declaration textual entity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A textual entity intended to identify a particular institution.</t>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1310,7 +1322,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1335,22 +1347,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>IAO:0000303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>institutional identification</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1391,31 +1403,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ADDICTO:0001267</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t xml:space="preserve">intervention evaluation study </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1426,7 +1434,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1449,112 +1457,116 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001267</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000171</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>language of document</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is the language used to express the information in a document.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001265</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1563,38 +1575,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GMHO:0000116</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n-of-1 randomised controlled trial design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1925,7 +1929,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>"randomised controlled trial design" AND "parallel group design"</t>
+          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,56 +1289,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IAO:0000624</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>funding source declaration textual entity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000210</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>duration between baseline and followup measurement</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1347,17 +1347,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IAO:0000303</t>
+          <t>IAO:0000624</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>institutional identification</t>
+          <t>funding source declaration textual entity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A textual entity intended to identify a particular institution.</t>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1378,7 +1378,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1403,22 +1403,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>IAO:0000303</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>institutional identification</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1459,31 +1459,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADDICTO:0001267</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t xml:space="preserve">intervention evaluation study </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1494,7 +1490,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1517,112 +1513,116 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001267</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000171</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>language of document</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is the language used to express the information in a document.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001265</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1631,22 +1631,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1687,22 +1687,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>ADDICTO:0001292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 study design</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1741,116 +1741,112 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001258</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>non-interventional study design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000117</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>number of intervention arms</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of intervention groups in a study.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1859,22 +1855,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OBI:0500006</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>parallel group design</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1917,176 +1913,180 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OBI:0500006</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>parallel group design</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000121</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>parallel randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>OBCS:0000024</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>power calculation</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>data transformation</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000119</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>pre-registered plan specification source</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2095,22 +2095,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2151,22 +2151,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000120</t>
+          <t>GMHO:0000118</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>publication year textual entity</t>
+          <t>publication from same research project</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2205,60 +2205,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2267,17 +2263,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2289,7 +2285,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2302,7 +2298,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2327,27 +2323,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2361,7 +2361,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
@@ -2379,22 +2383,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2410,14 +2414,10 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sequential multiple randomised controlled trial design</t>
+          <t xml:space="preserve">repeated measure design </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2491,31 +2491,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2526,7 +2522,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2551,34 +2547,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OBI:0500000</t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2586,7 +2582,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2611,22 +2607,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPMI:0000327</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>study status</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2634,7 +2630,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2665,56 +2665,56 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>IAO:0000030</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000211</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>study identification</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2723,22 +2723,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2746,11 +2746,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2780,6 +2776,122 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -547,38 +547,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GMHO:0000116</t>
+          <t>GMHO:0000170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
+          <t>author email address textual entity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+          <t>A textual entity documenting the email address of an author of a publication.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -586,7 +578,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -595,11 +587,7 @@
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
@@ -609,52 +597,56 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GMHO:0000170</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>author email address textual entity</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the email address of an author of a publication.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000107</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>author identification</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR2</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -663,22 +655,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000107</t>
+          <t>GMHO:0000108</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>author identification</t>
+          <t>blinding data analysts of intervention arm</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
+          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>blinding process</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -694,7 +686,7 @@
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -719,17 +711,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000108</t>
+          <t>GMHO:0000109</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>blinding data analysts of intervention arm</t>
+          <t>blinding intervention source about intervention arm</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
+          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -773,116 +765,116 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000109</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>blinding intervention source about intervention arm</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GMHO:0000110</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>blinding outcome assessor of intervention arm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000111</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>blinding participant about intervention arm</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>blinding process</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GMHO:0000110</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>blinding outcome assessor of intervention arm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>blinding process</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -891,22 +883,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000111</t>
+          <t>GMHO:0000112</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>blinding participant about intervention arm</t>
+          <t>blinding process</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>blinding process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -945,56 +937,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000112</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>blinding process</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001257</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>case-control study design</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>non-interventional study design</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1003,27 +995,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADDICTO:0001257</t>
+          <t>ADDICTO:0001277</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>case-control study design</t>
+          <t>cluster randomised controlled trial design</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
+          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1034,7 +1030,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1059,31 +1055,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADDICTO:0001277</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cluster randomised controlled trial design</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>geographical location</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1094,7 +1086,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1119,22 +1111,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t xml:space="preserve">ADDICTO:0001255 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>cross over design</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>geographical location</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1150,7 +1142,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1173,56 +1165,60 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001255 </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>cross over design</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000114</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>cross over randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "cross over design"</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1231,29 +1227,25 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000114</t>
+          <t>GMHO:0000210</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>cross over randomised controlled trial design</t>
+          <t>duration between baseline and followup measurement</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
+          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "cross over design"</t>
-        </is>
-      </c>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr"/>
@@ -1266,7 +1258,7 @@
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1289,56 +1281,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000210</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>duration between baseline and followup measurement</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IAO:0000624</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>funding source declaration textual entity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1347,17 +1339,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IAO:0000624</t>
+          <t>IAO:0000303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>funding source declaration textual entity</t>
+          <t>institutional identification</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
+          <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1378,7 +1370,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1403,22 +1395,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IAO:0000303</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>institutional identification</t>
+          <t xml:space="preserve">intervention evaluation study </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A textual entity intended to identify a particular institution.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1459,27 +1451,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>ADDICTO:0001267</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1490,7 +1486,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1513,116 +1509,112 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001267</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000171</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>language of document</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is the language used to express the information in a document.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001265</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mixed study design</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000171</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>language of document</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>An information content entity that is the language used to express the information in a document.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr">
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1631,30 +1623,38 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ADDICTO:0001265</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mixed study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,112 +2665,104 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ICO:0000087</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>study duration measurement</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A time measurement datum that measures the duration of a study.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>time measurement datum</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>OPMI:0000327</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>study status</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2779,22 +2771,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2810,7 +2802,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -2835,22 +2827,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2858,11 +2850,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2870,7 +2858,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -2887,6 +2875,66 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -623,7 +623,11 @@
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
       <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
@@ -648,7 +652,7 @@
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,136 +545,136 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000215</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>allocation risk of bias</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with the allocation sequence generated and applied in a study.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>GMHO:0000170</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>author email address textual entity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A textual entity documenting the email address of an author of a publication.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>LSR 1; LSR2</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000107</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>author identification</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000108</t>
+          <t>GMHO:0000107</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>blinding data analysts of intervention arm</t>
+          <t>author identification</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
+          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>blinding process</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -683,14 +683,18 @@
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -708,24 +712,24 @@
       <c r="U4" s="2" t="inlineStr"/>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000109</t>
+          <t>GMHO:0000108</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>blinding intervention source about intervention arm</t>
+          <t>blinding data analysts of intervention arm</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
+          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -769,116 +773,116 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000109</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>blinding intervention source about intervention arm</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>blinding process</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>GMHO:0000110</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>blinding outcome assessor of intervention arm</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000111</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>blinding participant about intervention arm</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>blinding process</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -887,22 +891,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000112</t>
+          <t>GMHO:0000111</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>blinding participant about intervention arm</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>blinding process</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -941,56 +945,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001257</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>case-control study design</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>non-interventional study design</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000112</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>blinding process</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -999,31 +1003,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADDICTO:0001277</t>
+          <t>ADDICTO:0001257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cluster randomised controlled trial design</t>
+          <t>case-control study design</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
+          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1034,7 +1034,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1059,27 +1059,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>ADDICTO:0001277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>cluster randomised controlled trial design</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>geographical location</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1090,7 +1094,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1115,22 +1119,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001255 </t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cross over design</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>mixed study design</t>
+          <t>geographical location</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1146,7 +1150,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1169,60 +1173,56 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000114</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>cross over randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "cross over design"</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001255 </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cross over design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mixed study design</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1231,25 +1231,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000210</t>
+          <t>GMHO:0000114</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>duration between baseline and followup measurement</t>
+          <t>cross over randomised controlled trial design</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
+          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "cross over design"</t>
+        </is>
+      </c>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr"/>
@@ -1262,7 +1266,7 @@
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1285,56 +1289,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IAO:0000624</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>funding source declaration textual entity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000210</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>duration between baseline and followup measurement</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1343,17 +1347,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IAO:0000303</t>
+          <t>IAO:0000624</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>institutional identification</t>
+          <t>funding source declaration textual entity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A textual entity intended to identify a particular institution.</t>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1374,7 +1378,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1399,22 +1403,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>IAO:0000303</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>institutional identification</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1455,31 +1459,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADDICTO:0001267</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t xml:space="preserve">intervention evaluation study </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1515,17 +1515,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000171</t>
+          <t>GMHO:0000216</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>language of document</t>
+          <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is the language used to express the information in a document.</t>
+          <t>An information content entity that is about the likelihood of the intervention evaluation finding misrepresenting the intervention outcome.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1538,7 +1538,11 @@
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
@@ -1546,7 +1550,7 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1571,17 +1575,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADDICTO:0001265</t>
+          <t>ADDICTO:0001267</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mixed study design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1591,7 +1595,11 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1602,7 +1610,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1625,64 +1633,56 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GMHO:0000116</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>n-of-1 randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000171</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>language of document</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is the language used to express the information in a document.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1691,22 +1691,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1747,30 +1747,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1801,56 +1809,56 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000117</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention arms</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of intervention groups in a study.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001292</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n-of-1 study design</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>repeated measures study design</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1859,22 +1867,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>ADDICTO:0001258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1882,11 +1890,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1917,124 +1921,116 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>OBI:0500006</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>parallel group design</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000117</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention arms</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of intervention groups in a study.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000121</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>parallel randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "parallel group design"</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2043,22 +2039,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OBCS:0000024</t>
+          <t>OBI:0500006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>power calculation</t>
+          <t>parallel group design</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>data transformation</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2066,7 +2062,11 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2099,30 +2099,38 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000119</t>
+          <t>GMHO:0000121</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>pre-registered plan specification source</t>
+          <t>parallel randomised controlled trial design</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="inlineStr"/>
@@ -2130,7 +2138,7 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2153,56 +2161,56 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000118</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>publication from same research project</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>related work textual entity</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OBCS:0000024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>power calculation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>data transformation</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2211,22 +2219,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000120</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>publication year textual entity</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -2265,120 +2273,112 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000118</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>publication from same research project</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001263</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2387,27 +2387,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>qRCT, quasi-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2418,10 +2422,14 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
@@ -2439,27 +2447,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2470,7 +2482,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -2495,22 +2507,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sequential multiple randomised controlled trial design</t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2526,14 +2538,10 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
@@ -2551,31 +2559,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t xml:space="preserve">repeated measure design </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2586,7 +2590,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2609,108 +2613,120 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>OBI:0500000</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>plan specification</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000217</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with intervention</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ICO:0000087</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>study duration measurement</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A time measurement datum that measures the duration of a study.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>time measurement datum</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000218</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with measurement of outcome data</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2719,22 +2735,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000211</t>
+          <t>GMHO:0000219</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>study identification</t>
+          <t>risk of bias associated with missing outcome data</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2742,7 +2758,11 @@
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr"/>
@@ -2750,7 +2770,7 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -2773,56 +2793,60 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>OPMI:0000327</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>study status</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2831,22 +2855,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2862,7 +2886,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -2887,34 +2911,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2922,7 +2946,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -2939,6 +2963,342 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>OBI:0500000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ICO:0000087</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>study duration measurement</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A time measurement datum that measures the duration of a study.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>time measurement datum</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000211</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>study identification</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>OPMI:0000327</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>study status</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,60 +1977,60 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000237</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>number of sequential treatments</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2039,22 +2039,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OBI:0500006</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>parallel group design</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2097,176 +2097,180 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OBI:0500006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>parallel group design</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000121</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>parallel randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>OBCS:0000024</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>power calculation</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>data transformation</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000119</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>pre-registered plan specification source</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2275,22 +2279,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -2331,22 +2335,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000120</t>
+          <t>GMHO:0000118</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>publication year textual entity</t>
+          <t>publication from same research project</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2385,60 +2389,56 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2447,17 +2447,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2469,7 +2469,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -2507,27 +2507,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2541,7 +2545,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
@@ -2559,22 +2567,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2590,14 +2598,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
@@ -2613,60 +2617,56 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000217</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with intervention</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repeated measure design </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2675,17 +2675,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000218</t>
+          <t>GMHO:0000217</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with measurement of outcome data</t>
+          <t>risk of bias associated with intervention</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2735,17 +2735,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000219</t>
+          <t>GMHO:0000218</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with missing outcome data</t>
+          <t>risk of bias associated with measurement of outcome data</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2795,17 +2795,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000220</t>
+          <t>GMHO:0000219</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with selective outcome reporting</t>
+          <t>risk of bias associated with missing outcome data</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2853,56 +2853,60 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>sequential multiple randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2911,31 +2915,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -2971,34 +2971,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OBI:0500000</t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3031,22 +3031,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICO:0000087</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>study duration measurement</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A time measurement datum that measures the duration of a study.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>time measurement datum</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3054,14 +3054,26 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
@@ -3077,112 +3089,104 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ICO:0000087</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>study duration measurement</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A time measurement datum that measures the duration of a study.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>time measurement datum</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>OPMI:0000327</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>study status</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
+      <c r="T47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3191,22 +3195,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3222,7 +3226,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -3247,22 +3251,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3270,11 +3274,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3282,7 +3282,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -3299,6 +3299,66 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -2359,7 +2359,11 @@
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
@@ -2384,7 +2388,7 @@
       <c r="U33" s="2" t="inlineStr"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -1947,7 +1947,12 @@
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
+</t>
+        </is>
+      </c>
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr"/>
       <c r="N26" s="2" t="inlineStr"/>
@@ -1972,7 +1977,7 @@
       <c r="U26" s="2" t="inlineStr"/>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1289,56 +1295,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000210</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>duration between baseline and followup measurement</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr"/>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T15" s="3" t="inlineStr"/>
+      <c r="U15" s="3" t="inlineStr"/>
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2398,56 +2404,56 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3115,7 +3121,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>time measurement datum</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3146,56 +3152,56 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr"/>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr">
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1339,7 +1339,7 @@
       <c r="R15" s="3" t="inlineStr"/>
       <c r="S15" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T15" s="3" t="inlineStr"/>
@@ -2448,7 +2448,7 @@
       <c r="R34" s="3" t="inlineStr"/>
       <c r="S34" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T34" s="3" t="inlineStr"/>
@@ -3196,7 +3196,7 @@
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T47" s="3" t="inlineStr"/>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,22 +1697,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADDICTO:0001265</t>
+          <t>IAO:0000109</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mixed study design</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1753,38 +1753,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GMHO:0000116</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n-of-1 randomised controlled trial design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1817,30 +1809,38 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1873,22 +1873,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>ADDICTO:0001292</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 study design</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1927,80 +1927,75 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000117</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention arms</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of intervention groups in a study.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
-</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001258</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>non-interventional study design</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000237</t>
+          <t>GMHO:0000117</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>number of sequential treatments</t>
+          <t>number of intervention arms</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
+          <t>A data item that is about the number of intervention groups in a study.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2013,19 +2008,20 @@
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
+</t>
+        </is>
+      </c>
       <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr"/>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -2043,65 +2039,65 @@
       <c r="U27" s="2" t="inlineStr"/>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000237</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>number of sequential treatments</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2110,22 +2106,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OBI:0500006</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>parallel group design</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2168,176 +2164,180 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OBI:0500006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>parallel group design</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000121</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>parallel randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>OBCS:0000024</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>power calculation</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>data transformation</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000119</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>pre-registered plan specification source</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2346,22 +2346,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2370,11 +2370,7 @@
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>"Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
+      <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
@@ -2399,121 +2395,121 @@
       <c r="U33" s="2" t="inlineStr"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000118</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>publication from same research project</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr"/>
-      <c r="V34" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2522,17 +2518,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2544,7 +2540,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2557,7 +2553,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2582,27 +2578,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2616,7 +2616,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
@@ -2634,22 +2638,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2665,14 +2669,10 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
@@ -2688,60 +2688,56 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000217</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with intervention</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repeated measure design </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2750,17 +2746,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000218</t>
+          <t>GMHO:0000217</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with measurement of outcome data</t>
+          <t>risk of bias associated with intervention</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2810,17 +2806,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000219</t>
+          <t>GMHO:0000218</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with missing outcome data</t>
+          <t>risk of bias associated with measurement of outcome data</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2870,17 +2866,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000220</t>
+          <t>GMHO:0000219</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with selective outcome reporting</t>
+          <t>risk of bias associated with missing outcome data</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2928,56 +2924,60 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>sequential multiple randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2986,31 +2986,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -3021,7 +3017,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3046,34 +3042,34 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OBI:0500000</t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3081,7 +3077,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3106,22 +3102,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICO:0000087</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>study duration measurement</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A time measurement datum that measures the duration of a study.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3129,14 +3125,26 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
@@ -3152,112 +3160,104 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ICO:0000087</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>study duration measurement</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A time measurement datum that measures the duration of a study.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>OPMI:0000327</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>study status</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3266,22 +3266,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3297,7 +3297,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -3322,22 +3322,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3345,11 +3345,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3357,7 +3353,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -3374,6 +3370,66 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,12 +30,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -599,7 +605,7 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
@@ -663,172 +669,172 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000107</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>author identification</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>Information Artifact Ontology (IAO)"</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr"/>
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr"/>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000108</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>blinding data analysts of intervention arm</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000109</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>blinding intervention source about intervention arm</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -895,112 +901,112 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000111</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>blinding participant about intervention arm</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000112</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1235,116 +1241,116 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000114</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>cross over randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "cross over design"</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr"/>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000210</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>duration between baseline and followup measurement</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr"/>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" s="3" t="inlineStr"/>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr"/>
-      <c r="U15" s="3" t="inlineStr"/>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1567,7 +1573,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
@@ -1639,56 +1645,56 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000171</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>language of document</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is the language used to express the information in a document.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="T21" s="3" t="inlineStr"/>
+      <c r="U21" s="3" t="inlineStr"/>
+      <c r="V21" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1983,61 +1989,61 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000117</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>number of intervention arms</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>A data item that is about the number of intervention groups in a study.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr"/>
+      <c r="I27" s="3" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr"/>
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
 </t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr"/>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr"/>
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2092,7 +2098,7 @@
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2224,64 +2230,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000121</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>parallel randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
+      <c r="T31" s="3" t="inlineStr"/>
+      <c r="U31" s="3" t="inlineStr"/>
+      <c r="V31" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2344,172 +2350,172 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000119</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>pre-registered plan specification source</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>citation</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr"/>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr">
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000118</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>publication from same research project</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>related work textual entity</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr">
         <is>
           <t>"Information Artifact Ontology (IAO)"</t>
         </is>
       </c>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr"/>
-      <c r="J35" s="3" t="inlineStr"/>
-      <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="inlineStr"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr"/>
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr"/>
+      <c r="O35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q35" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr">
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="3" t="inlineStr"/>
-      <c r="U35" s="3" t="inlineStr"/>
-      <c r="V35" s="3" t="inlineStr">
+      <c r="T35" s="4" t="inlineStr"/>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2792,7 +2798,7 @@
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr"/>
@@ -2852,7 +2858,7 @@
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
@@ -2912,7 +2918,7 @@
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
@@ -2972,7 +2978,7 @@
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
@@ -3208,56 +3214,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="inlineStr"/>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -39,17 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -605,7 +599,7 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
@@ -1301,56 +1295,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000210</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>duration between baseline and followup measurement</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1573,7 +1567,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
@@ -2098,7 +2092,7 @@
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2466,56 +2460,56 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="inlineStr"/>
-      <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr"/>
-      <c r="O35" s="4" t="inlineStr"/>
-      <c r="P35" s="4" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q35" s="4" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr">
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr">
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2798,7 +2792,7 @@
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr"/>
@@ -2858,7 +2852,7 @@
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
@@ -2918,7 +2912,7 @@
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
@@ -2978,7 +2972,7 @@
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
@@ -3214,56 +3208,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -3241,7 +3241,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3259,7 +3259,7 @@
       <c r="U48" s="2" t="inlineStr"/>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -2841,7 +2841,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR2; LSR 3</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="U41" s="2" t="inlineStr"/>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -3322,7 +3322,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>IAO:00000300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3371,7 +3371,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
     <fill>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -571,21 +577,21 @@
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -596,14 +602,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -611,52 +617,56 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000170</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>author email address textual entity</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>A textual entity documenting the email address of an author of a publication.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -683,21 +693,21 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
           <t>Information Artifact Ontology (IAO)"</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
       <c r="P4" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -708,14 +718,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T4" s="3" t="inlineStr"/>
-      <c r="U4" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
       <c r="V4" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -743,17 +753,17 @@
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
       <c r="P5" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -764,14 +774,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="n"/>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
       <c r="V5" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -799,17 +809,17 @@
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
       <c r="P6" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -820,14 +830,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="n"/>
       <c r="S6" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
       <c r="V6" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -835,60 +845,60 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000110</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>blinding outcome assessor of intervention arm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -915,17 +925,17 @@
           <t>blinding process</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
       <c r="P8" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -936,14 +946,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr"/>
+      <c r="R8" s="3" t="n"/>
       <c r="S8" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr"/>
-      <c r="U8" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
       <c r="V8" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -971,17 +981,17 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -992,14 +1002,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr"/>
-      <c r="U9" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
       <c r="V9" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1007,228 +1017,228 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001257</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>case-control study design</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>non-interventional study design</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="n"/>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001277</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>cluster randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BCIO:026001</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>country of intervention</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>geographical location</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001255 </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>cross over design</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>mixed study design</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1260,16 +1270,16 @@
           <t>"randomised controlled trial design" AND "cross over design"</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
       <c r="P14" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1280,14 +1290,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="n"/>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr"/>
-      <c r="U14" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
       <c r="V14" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1315,17 +1325,17 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -1336,14 +1346,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
       <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1351,168 +1361,168 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>IAO:0000624</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>funding source declaration textual entity</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>IAO:0000303</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>institutional identification</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:038000</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intervention evaluation study </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1539,21 +1549,21 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1564,14 +1574,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
       <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1579,60 +1589,60 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001267</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>A study design that includes specification of some intervention as part of the study process.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>controlled trial, study with at least one comparator group</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="n"/>
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1659,17 +1669,17 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
       <c r="P21" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
@@ -1680,14 +1690,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr"/>
+      <c r="R21" s="3" t="n"/>
       <c r="S21" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T21" s="3" t="inlineStr"/>
-      <c r="U21" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="n"/>
       <c r="V21" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1715,17 +1725,6 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -1736,14 +1735,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1751,232 +1747,232 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001265</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>mixed study design</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
+      <c r="V23" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000116</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="n"/>
+      <c r="V24" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001292</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>n-of-1 study design</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>repeated measures study design</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="3" t="n"/>
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="n"/>
+      <c r="S25" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T25" s="3" t="n"/>
+      <c r="U25" s="3" t="n"/>
+      <c r="V25" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001258</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>non-interventional study design</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="n"/>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T26" s="3" t="n"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2003,22 +1999,22 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
       <c r="K27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
 </t>
         </is>
       </c>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
@@ -2029,14 +2025,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R27" s="3" t="inlineStr"/>
+      <c r="R27" s="3" t="n"/>
       <c r="S27" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T27" s="3" t="inlineStr"/>
-      <c r="U27" s="3" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T27" s="3" t="n"/>
+      <c r="U27" s="3" t="n"/>
       <c r="V27" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -2064,21 +2060,21 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2089,14 +2085,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
       <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2104,120 +2100,120 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T29" s="3" t="n"/>
+      <c r="U29" s="3" t="n"/>
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>OBI:0500006</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>parallel group design</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="K30" s="3" t="n"/>
+      <c r="L30" s="3" t="n"/>
+      <c r="M30" s="3" t="n"/>
+      <c r="N30" s="3" t="n"/>
+      <c r="O30" s="3" t="n"/>
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="n"/>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T30" s="3" t="n"/>
+      <c r="U30" s="3" t="n"/>
+      <c r="V30" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2249,20 +2245,20 @@
           <t>"randomised controlled trial design" AND "parallel group design"</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
       <c r="J31" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="n"/>
+      <c r="L31" s="3" t="n"/>
+      <c r="M31" s="3" t="n"/>
+      <c r="N31" s="3" t="n"/>
+      <c r="O31" s="3" t="n"/>
       <c r="P31" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2273,187 +2269,187 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="n"/>
       <c r="S31" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T31" s="3" t="n"/>
+      <c r="U31" s="3" t="n"/>
+      <c r="V31" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>OBCS:0000024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>power calculation</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>data transformation</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
+      <c r="M32" s="3" t="n"/>
+      <c r="N32" s="3" t="n"/>
+      <c r="O32" s="3" t="n"/>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="n"/>
+      <c r="S32" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T32" s="3" t="n"/>
+      <c r="U32" s="3" t="n"/>
+      <c r="V32" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000119</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>pre-registered plan specification source</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>citation</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="4" t="n"/>
+      <c r="H33" s="4" t="n"/>
+      <c r="I33" s="4" t="n"/>
+      <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
+      <c r="L33" s="4" t="n"/>
+      <c r="M33" s="4" t="n"/>
+      <c r="N33" s="4" t="n"/>
+      <c r="O33" s="4" t="n"/>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="n"/>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="3" t="inlineStr"/>
-      <c r="U31" s="3" t="inlineStr"/>
-      <c r="V31" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OBCS:0000024</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>power calculation</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>data transformation</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000119</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>pre-registered plan specification source</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr">
+      <c r="T33" s="4" t="n"/>
+      <c r="U33" s="4" t="n"/>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000118</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>publication from same research project</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="4" t="n"/>
+      <c r="H34" s="4" t="n"/>
+      <c r="I34" s="4" t="n"/>
+      <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="4" t="n"/>
+      <c r="N34" s="4" t="n"/>
+      <c r="O34" s="4" t="n"/>
+      <c r="P34" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr">
+      <c r="Q34" s="4" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="4" t="n"/>
+      <c r="S34" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T33" s="3" t="inlineStr"/>
-      <c r="U33" s="3" t="inlineStr"/>
-      <c r="V33" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000118</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>publication from same research project</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>related work textual entity</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>"Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr"/>
-      <c r="V34" s="3" t="inlineStr">
+      <c r="T34" s="4" t="n"/>
+      <c r="U34" s="4" t="n"/>
+      <c r="V34" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2480,17 +2476,17 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2501,14 +2497,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
       <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2536,21 +2532,11 @@
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
@@ -2561,14 +2547,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2596,21 +2579,11 @@
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">RCT, randomised controlled trial </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2621,14 +2594,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2656,31 +2626,16 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2708,17 +2663,6 @@
           <t>study design</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2729,14 +2673,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2764,21 +2705,21 @@
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2789,14 +2730,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="n"/>
       <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2824,21 +2765,21 @@
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR2; LSR 3</t>
@@ -2849,14 +2790,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="n"/>
       <c r="S41" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
       <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -2884,21 +2825,21 @@
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2909,14 +2850,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2944,21 +2885,21 @@
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2969,14 +2910,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="n"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
       <c r="V43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3004,17 +2945,6 @@
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3025,14 +2955,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3060,21 +2987,11 @@
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>intervention without comparator group</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
@@ -3085,14 +3002,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3120,21 +3034,11 @@
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3145,14 +3049,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3180,27 +3081,11 @@
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3228,17 +3113,17 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -3249,14 +3134,14 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
+      <c r="T48" s="2" t="n"/>
+      <c r="U48" s="2" t="n"/>
       <c r="V48" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -3284,17 +3169,6 @@
           <t>status</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3305,14 +3179,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3340,17 +3211,6 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -3361,14 +3221,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -3396,21 +3253,11 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3421,14 +3268,11 @@
           <t>Research methods</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
           <t>PS</t>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2340,116 +2334,116 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000119</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>pre-registered plan specification source</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>citation</t>
         </is>
       </c>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
-      <c r="O33" s="4" t="n"/>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="3" t="n"/>
+      <c r="N33" s="3" t="n"/>
+      <c r="O33" s="3" t="n"/>
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R33" s="4" t="n"/>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="n"/>
-      <c r="U33" s="4" t="n"/>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="n"/>
+      <c r="S33" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T33" s="3" t="n"/>
+      <c r="U33" s="3" t="n"/>
+      <c r="V33" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000118</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>publication from same research project</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>related work textual entity</t>
         </is>
       </c>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="inlineStr">
         <is>
           <t>"Information Artifact Ontology (IAO)"</t>
         </is>
       </c>
-      <c r="L34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
-      <c r="O34" s="4" t="n"/>
-      <c r="P34" s="4" t="inlineStr">
+      <c r="L34" s="3" t="n"/>
+      <c r="M34" s="3" t="n"/>
+      <c r="N34" s="3" t="n"/>
+      <c r="O34" s="3" t="n"/>
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R34" s="4" t="n"/>
-      <c r="S34" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="4" t="n"/>
-      <c r="U34" s="4" t="n"/>
-      <c r="V34" s="4" t="inlineStr">
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="n"/>
+      <c r="S34" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T34" s="3" t="n"/>
+      <c r="U34" s="3" t="n"/>
+      <c r="V34" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2512,173 +2506,228 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
+      <c r="L36" s="3" t="n"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
+      <c r="P36" s="3" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T36" s="3" t="n"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001263</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">RCT, randomised controlled trial </t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="n"/>
+      <c r="N37" s="3" t="n"/>
+      <c r="O37" s="3" t="n"/>
+      <c r="P37" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="n"/>
+      <c r="S37" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T37" s="3" t="n"/>
+      <c r="U37" s="3" t="n"/>
+      <c r="V37" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>IAO:0000640</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>related work textual entity</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
+      <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="N38" s="3" t="n"/>
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T38" s="3" t="n"/>
+      <c r="U38" s="3" t="n"/>
+      <c r="V38" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001262 </t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">repeated measure design </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
+      <c r="N39" s="3" t="n"/>
+      <c r="O39" s="3" t="n"/>
+      <c r="P39" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="n"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2925,168 +2974,224 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
+      <c r="M44" s="3" t="n"/>
+      <c r="N44" s="3" t="n"/>
+      <c r="O44" s="3" t="n"/>
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="n"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="n"/>
+      <c r="U44" s="3" t="n"/>
+      <c r="V44" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001279</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>single-arm intervention design</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>intervention without comparator group</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="n"/>
+      <c r="N45" s="3" t="n"/>
+      <c r="O45" s="3" t="n"/>
+      <c r="P45" s="3" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="n"/>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T45" s="3" t="n"/>
+      <c r="U45" s="3" t="n"/>
+      <c r="V45" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="K46" s="3" t="n"/>
+      <c r="L46" s="3" t="n"/>
+      <c r="M46" s="3" t="n"/>
+      <c r="N46" s="3" t="n"/>
+      <c r="O46" s="3" t="n"/>
+      <c r="P46" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="n"/>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T46" s="3" t="n"/>
+      <c r="U46" s="3" t="n"/>
+      <c r="V46" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>ICO:0000087</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>study duration measurement</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>A time measurement datum that measures the duration of a study.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="n"/>
+      <c r="N47" s="3" t="n"/>
+      <c r="O47" s="3" t="n"/>
+      <c r="P47" s="3" t="n"/>
+      <c r="Q47" s="3" t="n"/>
+      <c r="R47" s="3" t="n"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T47" s="3" t="n"/>
+      <c r="U47" s="3" t="n"/>
+      <c r="V47" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3149,131 +3254,172 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>OPMI:0000327</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>study status</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="n"/>
+      <c r="N49" s="3" t="n"/>
+      <c r="O49" s="3" t="n"/>
+      <c r="P49" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="n"/>
+      <c r="S49" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T49" s="3" t="n"/>
+      <c r="U49" s="3" t="n"/>
+      <c r="V49" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>IAO:00000300</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T50" s="3" t="n"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001297 </t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>wash-out period</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
+      <c r="N51" s="3" t="n"/>
+      <c r="O51" s="3" t="n"/>
+      <c r="P51" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="n"/>
+      <c r="S51" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T51" s="3" t="n"/>
+      <c r="U51" s="3" t="n"/>
+      <c r="V51" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -3310,56 +3310,42 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>IAO:00000300</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="n"/>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,112 +1305,100 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000261</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>digital object identifier</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>A textual entity that refers to the digital object identifier of a research study.</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="inlineStr"/>
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000210</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>duration between baseline and followup measurement</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>IAO:0000624</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>funding source declaration textual entity</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="n"/>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1413,17 +1407,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>IAO:0000303</t>
+          <t>IAO:0000624</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>institutional identification</t>
+          <t>funding source declaration textual entity</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>A textual entity intended to identify a particular institution.</t>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1444,7 +1438,7 @@
       <c r="O17" s="3" t="n"/>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr">
@@ -1469,22 +1463,22 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>IAO:0000303</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>institutional identification</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A textual entity intended to identify a particular institution.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E18" s="3" t="n"/>
@@ -1523,120 +1517,116 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:038000</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention evaluation study </t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="n"/>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="n"/>
+      <c r="S19" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="n"/>
+      <c r="V19" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000216</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about the likelihood of the intervention evaluation finding misrepresenting the intervention outcome.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001267</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="3" t="n"/>
-      <c r="P20" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R20" s="3" t="n"/>
-      <c r="S20" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T20" s="3" t="n"/>
-      <c r="U20" s="3" t="n"/>
-      <c r="V20" s="3" t="inlineStr">
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1645,27 +1635,31 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000171</t>
+          <t>ADDICTO:0001267</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>language of document</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>An information content entity that is the language used to express the information in a document.</t>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
       <c r="I21" s="3" t="n"/>
       <c r="J21" s="3" t="n"/>
@@ -1676,7 +1670,7 @@
       <c r="O21" s="3" t="n"/>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q21" s="3" t="inlineStr">
@@ -1699,98 +1693,98 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000171</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>language of document</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that is the language used to express the information in a document.</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+      <c r="V22" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>IAO:0000109</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001265</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="3" t="n"/>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="n"/>
-      <c r="S23" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T23" s="3" t="n"/>
-      <c r="U23" s="3" t="n"/>
-      <c r="V23" s="3" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1799,38 +1793,30 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000116</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 randomised controlled trial design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
       <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="n"/>
       <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
@@ -1863,30 +1849,38 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
       <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K25" s="3" t="n"/>
       <c r="L25" s="3" t="n"/>
       <c r="M25" s="3" t="n"/>
@@ -1919,22 +1913,22 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>ADDICTO:0001292</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 study design</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="E26" s="3" t="n"/>
@@ -1975,22 +1969,22 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000117</t>
+          <t>ADDICTO:0001258</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>number of intervention arms</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of intervention groups in a study.</t>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E27" s="3" t="n"/>
@@ -1999,19 +1993,14 @@
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
-</t>
-        </is>
-      </c>
+      <c r="K27" s="3" t="n"/>
       <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="n"/>
       <c r="N27" s="3" t="n"/>
       <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr">
@@ -2029,125 +2018,126 @@
       <c r="U27" s="3" t="n"/>
       <c r="V27" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000117</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>number of intervention arms</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of intervention groups in a study.</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
+</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="n"/>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="n"/>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T28" s="3" t="n"/>
+      <c r="U28" s="3" t="n"/>
+      <c r="V28" s="3" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000237</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>number of sequential treatments</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="n"/>
-      <c r="L29" s="3" t="n"/>
-      <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="n"/>
-      <c r="O29" s="3" t="n"/>
-      <c r="P29" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="n"/>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="n"/>
-      <c r="U29" s="3" t="n"/>
-      <c r="V29" s="3" t="inlineStr">
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2156,22 +2146,22 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>OBI:0500006</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>parallel group design</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E30" s="3" t="n"/>
@@ -2216,29 +2206,25 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000121</t>
+          <t>OBI:0500006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>parallel randomised controlled trial design</t>
+          <t>parallel group design</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "parallel group design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
@@ -2280,30 +2266,38 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>OBCS:0000024</t>
+          <t>GMHO:0000121</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>power calculation</t>
+          <t>parallel randomised controlled trial design</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>data transformation</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
       <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="n"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K32" s="3" t="n"/>
       <c r="L32" s="3" t="n"/>
       <c r="M32" s="3" t="n"/>
@@ -2311,7 +2305,7 @@
       <c r="O32" s="3" t="n"/>
       <c r="P32" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q32" s="3" t="inlineStr">
@@ -2336,22 +2330,22 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000119</t>
+          <t>OBCS:0000024</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>pre-registered plan specification source</t>
+          <t>power calculation</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>citation</t>
+          <t>data transformation</t>
         </is>
       </c>
       <c r="E33" s="3" t="n"/>
@@ -2367,7 +2361,7 @@
       <c r="O33" s="3" t="n"/>
       <c r="P33" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q33" s="3" t="inlineStr">
@@ -2392,22 +2386,22 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E34" s="3" t="n"/>
@@ -2416,11 +2410,7 @@
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
       <c r="J34" s="3" t="n"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>"Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
+      <c r="K34" s="3" t="n"/>
       <c r="L34" s="3" t="n"/>
       <c r="M34" s="3" t="n"/>
       <c r="N34" s="3" t="n"/>
@@ -2445,121 +2435,121 @@
       <c r="U34" s="3" t="n"/>
       <c r="V34" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000118</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>publication from same research project</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="n"/>
+      <c r="N35" s="3" t="n"/>
+      <c r="O35" s="3" t="n"/>
+      <c r="P35" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R35" s="3" t="n"/>
+      <c r="S35" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T35" s="3" t="n"/>
+      <c r="U35" s="3" t="n"/>
+      <c r="V35" s="3" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="n"/>
-      <c r="L36" s="3" t="n"/>
-      <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="n"/>
-      <c r="O36" s="3" t="n"/>
-      <c r="P36" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R36" s="3" t="n"/>
-      <c r="S36" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T36" s="3" t="n"/>
-      <c r="U36" s="3" t="n"/>
-      <c r="V36" s="3" t="inlineStr">
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2568,17 +2558,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -2590,7 +2580,7 @@
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H37" s="3" t="n"/>
@@ -2603,7 +2593,7 @@
       <c r="O37" s="3" t="n"/>
       <c r="P37" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q37" s="3" t="inlineStr">
@@ -2628,27 +2618,31 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
       <c r="J38" s="3" t="n"/>
@@ -2662,7 +2656,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="3" t="n"/>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R38" s="3" t="n"/>
       <c r="S38" s="3" t="inlineStr">
         <is>
@@ -2680,22 +2678,22 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E39" s="3" t="n"/>
@@ -2711,14 +2709,10 @@
       <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q39" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q39" s="3" t="n"/>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
@@ -2734,60 +2728,56 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000217</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with intervention</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repeated measure design </t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="N40" s="3" t="n"/>
+      <c r="O40" s="3" t="n"/>
+      <c r="P40" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="n"/>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="inlineStr">
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="n"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2796,17 +2786,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000218</t>
+          <t>GMHO:0000217</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with measurement of outcome data</t>
+          <t>risk of bias associated with intervention</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2831,7 +2821,7 @@
       <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2849,24 +2839,24 @@
       <c r="U41" s="2" t="n"/>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000219</t>
+          <t>GMHO:0000218</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with missing outcome data</t>
+          <t>risk of bias associated with measurement of outcome data</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2891,7 +2881,7 @@
       <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR2; LSR 3</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2909,24 +2899,24 @@
       <c r="U42" s="2" t="n"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000220</t>
+          <t>GMHO:0000219</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with selective outcome reporting</t>
+          <t>risk of bias associated with missing outcome data</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2974,56 +2964,60 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>sequential multiple randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="n"/>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
-      <c r="H44" s="3" t="n"/>
-      <c r="I44" s="3" t="n"/>
-      <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="n"/>
-      <c r="L44" s="3" t="n"/>
-      <c r="M44" s="3" t="n"/>
-      <c r="N44" s="3" t="n"/>
-      <c r="O44" s="3" t="n"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="n"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="n"/>
-      <c r="U44" s="3" t="n"/>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3032,31 +3026,27 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="n"/>
@@ -3067,7 +3057,7 @@
       <c r="O45" s="3" t="n"/>
       <c r="P45" s="3" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q45" s="3" t="inlineStr">
@@ -3092,34 +3082,34 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>OBI:0500000</t>
+          <t>ADDICTO:0001279</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>single-arm intervention design</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J46" s="3" t="n"/>
       <c r="K46" s="3" t="n"/>
       <c r="L46" s="3" t="n"/>
       <c r="M46" s="3" t="n"/>
@@ -3127,7 +3117,7 @@
       <c r="O46" s="3" t="n"/>
       <c r="P46" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q46" s="3" t="inlineStr">
@@ -3152,22 +3142,22 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>ICO:0000087</t>
+          <t>OBI:0500000</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>study duration measurement</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>A time measurement datum that measures the duration of a study.</t>
+          <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>plan specification</t>
         </is>
       </c>
       <c r="E47" s="3" t="n"/>
@@ -3175,14 +3165,26 @@
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="n"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
       <c r="M47" s="3" t="n"/>
       <c r="N47" s="3" t="n"/>
       <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="3" t="n"/>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
@@ -3198,214 +3200,262 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>ICO:0000087</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>study duration measurement</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>A time measurement datum that measures the duration of a study.</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="n"/>
+      <c r="L48" s="3" t="n"/>
+      <c r="M48" s="3" t="n"/>
+      <c r="N48" s="3" t="n"/>
+      <c r="O48" s="3" t="n"/>
+      <c r="P48" s="3" t="n"/>
+      <c r="Q48" s="3" t="n"/>
+      <c r="R48" s="3" t="n"/>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T48" s="3" t="n"/>
+      <c r="U48" s="3" t="n"/>
+      <c r="V48" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="inlineStr">
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="2" t="n"/>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="T49" s="2" t="n"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>OPMI:0000327</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>study status</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="3" t="n"/>
-      <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
-      <c r="I49" s="3" t="n"/>
-      <c r="J49" s="3" t="n"/>
-      <c r="K49" s="3" t="n"/>
-      <c r="L49" s="3" t="n"/>
-      <c r="M49" s="3" t="n"/>
-      <c r="N49" s="3" t="n"/>
-      <c r="O49" s="3" t="n"/>
-      <c r="P49" s="3" t="inlineStr">
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q49" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R49" s="3" t="n"/>
-      <c r="S49" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T49" s="3" t="n"/>
-      <c r="U49" s="3" t="n"/>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T50" s="3" t="n"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>IAO:00000300</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001297 </t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>wash-out period</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="inlineStr">
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="n"/>
+      <c r="N52" s="3" t="n"/>
+      <c r="O52" s="3" t="n"/>
+      <c r="P52" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="R51" s="3" t="n"/>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T51" s="3" t="n"/>
-      <c r="U51" s="3" t="n"/>
-      <c r="V51" s="3" t="inlineStr">
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="n"/>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="3" t="n"/>
+      <c r="U52" s="3" t="n"/>
+      <c r="V52" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -1325,28 +1325,28 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="I15" s="4" t="n"/>
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="4" t="n"/>
+      <c r="N15" s="4" t="n"/>
+      <c r="O15" s="4" t="n"/>
+      <c r="P15" s="4" t="n"/>
+      <c r="Q15" s="4" t="n"/>
+      <c r="R15" s="4" t="n"/>
       <c r="S15" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
+      <c r="T15" s="4" t="n"/>
+      <c r="U15" s="4" t="n"/>
+      <c r="V15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>duration between baseline and followup measurement</t>
+          <t>duration between baseline and post-intervention measurement</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the time of data collection for pre-intervention data and followup data in a study.</t>
+          <t>A temporal interval between the time of data collection for pre-intervention data and post-intervention data in a study.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -2176,61 +2176,47 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
-      <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K30" s="3" t="n"/>
-      <c r="L30" s="3" t="n"/>
-      <c r="M30" s="3" t="n"/>
-      <c r="N30" s="3" t="n"/>
-      <c r="O30" s="3" t="n"/>
-      <c r="P30" s="3" t="n"/>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S30" s="3" t="n"/>
-      <c r="T30" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U30" s="3" t="n"/>
-      <c r="V30" s="3" t="n"/>
-      <c r="W30" s="3" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2509,7 +2495,7 @@
         </is>
       </c>
       <c r="L35" s="3" t="n"/>
-      <c r="M35" s="3" t="inlineStr"/>
+      <c r="M35" s="3" t="n"/>
       <c r="N35" s="3" t="n"/>
       <c r="O35" s="3" t="n"/>
       <c r="P35" s="3" t="n"/>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -1657,61 +1657,47 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>ADDICTO:0001267</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A study design that includes specification of some intervention as part of the study process.</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>controlled trial, study with at least one comparator group</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="n"/>
-      <c r="L21" s="3" t="n"/>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
-      <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="n"/>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S21" s="3" t="n"/>
-      <c r="T21" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U21" s="3" t="n"/>
-      <c r="V21" s="3" t="n"/>
-      <c r="W21" s="3" t="inlineStr">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3179,61 +3165,47 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
-      <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="n"/>
-      <c r="N47" s="3" t="n"/>
-      <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="3" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R47" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S47" s="3" t="n"/>
-      <c r="T47" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U47" s="3" t="n"/>
-      <c r="V47" s="3" t="n"/>
-      <c r="W47" s="3" t="inlineStr">
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,97 +1803,81 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001265</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="n"/>
-      <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S24" s="3" t="n"/>
-      <c r="T24" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U24" s="3" t="n"/>
-      <c r="V24" s="3" t="n"/>
-      <c r="W24" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IAO:0000003</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>measurement unit label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A measurement unit label is as a label that is part of a scalar measurement datum and denotes a unit of measure.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>datum label</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR3</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000116</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 randomised controlled trial design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
       <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J25" s="3" t="n"/>
       <c r="K25" s="3" t="n"/>
       <c r="L25" s="3" t="n"/>
       <c r="M25" s="3" t="n"/>
@@ -1927,30 +1911,38 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
       <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
@@ -1984,22 +1976,22 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>ADDICTO:0001292</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 study design</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="E27" s="3" t="n"/>
@@ -2041,22 +2033,22 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000117</t>
+          <t>ADDICTO:0001258</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>number of intervention arms</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of intervention groups in a study.</t>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E28" s="3" t="n"/>
@@ -2065,12 +2057,7 @@
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
-</t>
-        </is>
-      </c>
+      <c r="K28" s="3" t="n"/>
       <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
       <c r="N28" s="3" t="n"/>
@@ -2078,7 +2065,7 @@
       <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R28" s="3" t="inlineStr">
@@ -2096,174 +2083,175 @@
       <c r="V28" s="3" t="n"/>
       <c r="W28" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000117</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>number of intervention arms</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of intervention groups in a study.</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
+</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="n"/>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U29" s="3" t="n"/>
+      <c r="V29" s="3" t="n"/>
+      <c r="W29" s="3" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000237</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>number of sequential treatments</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="inlineStr">
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="n"/>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
-      <c r="W29" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0500006</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>parallel group design</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="n"/>
-      <c r="M31" s="3" t="n"/>
-      <c r="N31" s="3" t="n"/>
-      <c r="O31" s="3" t="n"/>
-      <c r="P31" s="3" t="n"/>
-      <c r="Q31" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S31" s="3" t="n"/>
-      <c r="T31" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U31" s="3" t="n"/>
-      <c r="V31" s="3" t="n"/>
-      <c r="W31" s="3" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2272,29 +2260,25 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000121</t>
+          <t>OBI:0500006</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>parallel randomised controlled trial design</t>
+          <t>parallel group design</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "parallel group design"</t>
-        </is>
-      </c>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
@@ -2337,30 +2321,38 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>OBCS:0000024</t>
+          <t>GMHO:0000121</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>power calculation</t>
+          <t>parallel randomised controlled trial design</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>data transformation</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
+        </is>
+      </c>
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
-      <c r="J33" s="3" t="n"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K33" s="3" t="n"/>
       <c r="L33" s="3" t="n"/>
       <c r="M33" s="3" t="n"/>
@@ -2369,7 +2361,7 @@
       <c r="P33" s="3" t="n"/>
       <c r="Q33" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R33" s="3" t="inlineStr">
@@ -2394,22 +2386,22 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000119</t>
+          <t>OBCS:0000024</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>pre-registered plan specification source</t>
+          <t>power calculation</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>citation</t>
+          <t>data transformation</t>
         </is>
       </c>
       <c r="E34" s="3" t="n"/>
@@ -2426,7 +2418,7 @@
       <c r="P34" s="3" t="n"/>
       <c r="Q34" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="R34" s="3" t="inlineStr">
@@ -2451,22 +2443,22 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>GMHO:0000119</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>pre-registered plan specification source</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="E35" s="3" t="n"/>
@@ -2475,11 +2467,7 @@
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>"Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
+      <c r="K35" s="3" t="n"/>
       <c r="L35" s="3" t="n"/>
       <c r="M35" s="3" t="n"/>
       <c r="N35" s="3" t="n"/>
@@ -2505,127 +2493,127 @@
       <c r="V35" s="3" t="n"/>
       <c r="W35" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000118</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>publication from same research project</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="n"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
+      <c r="P36" s="3" t="n"/>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000120</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>publication year textual entity</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>A textual entity documenting the year in which some study was published.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="inlineStr">
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr">
         <is>
           <t>publication year</t>
         </is>
       </c>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="inlineStr">
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="n"/>
-      <c r="T36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="n"/>
+      <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
-      <c r="W36" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>quasi-randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
-      <c r="M37" s="3" t="n"/>
-      <c r="N37" s="3" t="n"/>
-      <c r="O37" s="3" t="n"/>
-      <c r="P37" s="3" t="n"/>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R37" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S37" s="3" t="n"/>
-      <c r="T37" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U37" s="3" t="n"/>
-      <c r="V37" s="3" t="n"/>
-      <c r="W37" s="3" t="inlineStr">
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
+      <c r="W37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2634,17 +2622,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001263</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -2656,7 +2644,7 @@
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
+          <t>qRCT, quasi-randomised controlled trial</t>
         </is>
       </c>
       <c r="H38" s="3" t="n"/>
@@ -2670,7 +2658,7 @@
       <c r="P38" s="3" t="n"/>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R38" s="3" t="inlineStr">
@@ -2695,27 +2683,31 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
@@ -2730,7 +2722,11 @@
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R39" s="3" t="n"/>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="S39" s="3" t="n"/>
       <c r="T39" s="3" t="inlineStr">
         <is>
@@ -2748,22 +2744,22 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>IAO:0000640</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E40" s="3" t="n"/>
@@ -2780,14 +2776,10 @@
       <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="inlineStr">
         <is>
@@ -2803,61 +2795,57 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000217</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with intervention</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="n"/>
-      <c r="Q41" s="2" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repeated measure design </t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
+      <c r="N41" s="3" t="n"/>
+      <c r="O41" s="3" t="n"/>
+      <c r="P41" s="3" t="n"/>
+      <c r="Q41" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R41" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S41" s="2" t="n"/>
-      <c r="T41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="n"/>
-      <c r="W41" s="2" t="inlineStr">
+      <c r="R41" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
+      <c r="W41" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2866,17 +2854,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000218</t>
+          <t>GMHO:0000217</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with measurement of outcome data</t>
+          <t>risk of bias associated with intervention</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2902,7 +2890,7 @@
       <c r="P42" s="2" t="n"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>LSR2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
@@ -2920,24 +2908,24 @@
       <c r="V42" s="2" t="n"/>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000219</t>
+          <t>GMHO:0000218</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with missing outcome data</t>
+          <t>risk of bias associated with measurement of outcome data</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2963,7 +2951,7 @@
       <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR2; LSR 3</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
@@ -2981,24 +2969,24 @@
       <c r="V43" s="2" t="n"/>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000220</t>
+          <t>GMHO:0000219</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with selective outcome reporting</t>
+          <t>risk of bias associated with missing outcome data</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -3047,57 +3035,61 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001271 </t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>sequential multiple randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
-      <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="n"/>
-      <c r="L45" s="3" t="n"/>
-      <c r="M45" s="3" t="n"/>
-      <c r="N45" s="3" t="n"/>
-      <c r="O45" s="3" t="n"/>
-      <c r="P45" s="3" t="n"/>
-      <c r="Q45" s="3" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R45" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S45" s="3" t="n"/>
-      <c r="T45" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U45" s="3" t="n"/>
-      <c r="V45" s="3" t="n"/>
-      <c r="W45" s="3" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3106,31 +3098,27 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>single-arm intervention design</t>
+          <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>intervention without comparator group</t>
-        </is>
-      </c>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
       <c r="J46" s="3" t="n"/>
@@ -3142,7 +3130,7 @@
       <c r="P46" s="3" t="n"/>
       <c r="Q46" s="3" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R46" s="3" t="inlineStr">
@@ -3165,313 +3153,374 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001279</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>single-arm intervention design</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>intervention without comparator group</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="n"/>
+      <c r="N47" s="3" t="n"/>
+      <c r="O47" s="3" t="n"/>
+      <c r="P47" s="3" t="n"/>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U47" s="3" t="n"/>
+      <c r="V47" s="3" t="n"/>
+      <c r="W47" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>ICO:0000087</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>study duration measurement</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>A time measurement datum that measures the duration of a study.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n"/>
-      <c r="F48" s="3" t="n"/>
-      <c r="G48" s="3" t="n"/>
-      <c r="H48" s="3" t="n"/>
-      <c r="I48" s="3" t="n"/>
-      <c r="J48" s="3" t="n"/>
-      <c r="K48" s="3" t="n"/>
-      <c r="L48" s="3" t="n"/>
-      <c r="M48" s="3" t="n"/>
-      <c r="N48" s="3" t="n"/>
-      <c r="O48" s="3" t="n"/>
-      <c r="P48" s="3" t="n"/>
-      <c r="Q48" s="3" t="n"/>
-      <c r="R48" s="3" t="n"/>
-      <c r="S48" s="3" t="n"/>
-      <c r="T48" s="3" t="inlineStr">
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="n"/>
+      <c r="N49" s="3" t="n"/>
+      <c r="O49" s="3" t="n"/>
+      <c r="P49" s="3" t="n"/>
+      <c r="Q49" s="3" t="n"/>
+      <c r="R49" s="3" t="n"/>
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U48" s="3" t="n"/>
-      <c r="V48" s="3" t="n"/>
-      <c r="W48" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="U49" s="3" t="n"/>
+      <c r="V49" s="3" t="n"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="inlineStr">
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="n"/>
-      <c r="T49" s="2" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="n"/>
+      <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
-      <c r="W49" s="2" t="inlineStr">
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
+      <c r="W50" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>OPMI:0000327</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>study status</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="n"/>
-      <c r="Q50" s="3" t="inlineStr">
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
+      <c r="N51" s="3" t="n"/>
+      <c r="O51" s="3" t="n"/>
+      <c r="P51" s="3" t="n"/>
+      <c r="Q51" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R50" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S50" s="3" t="n"/>
-      <c r="T50" s="3" t="inlineStr">
+      <c r="R51" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
-      <c r="W50" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="U51" s="3" t="n"/>
+      <c r="V51" s="3" t="n"/>
+      <c r="W51" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>IAO:00000300</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001297 </t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>wash-out period</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="n"/>
-      <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K52" s="3" t="n"/>
-      <c r="L52" s="3" t="n"/>
-      <c r="M52" s="3" t="n"/>
-      <c r="N52" s="3" t="n"/>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="3" t="inlineStr">
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
+      <c r="O53" s="3" t="n"/>
+      <c r="P53" s="3" t="n"/>
+      <c r="Q53" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R52" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S52" s="3" t="n"/>
-      <c r="T52" s="3" t="inlineStr">
+      <c r="R53" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U52" s="3" t="n"/>
-      <c r="V52" s="3" t="n"/>
-      <c r="W52" s="3" t="inlineStr">
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="n"/>
+      <c r="W53" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,33 +1823,16 @@
           <t>datum label</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR3</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -3214,313 +3197,362 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000127</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>study arm</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr"/>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>ICO:0000087</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>study duration measurement</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>A time measurement datum that measures the duration of a study.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="3" t="n"/>
-      <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
-      <c r="I49" s="3" t="n"/>
-      <c r="J49" s="3" t="n"/>
-      <c r="K49" s="3" t="n"/>
-      <c r="L49" s="3" t="n"/>
-      <c r="M49" s="3" t="n"/>
-      <c r="N49" s="3" t="n"/>
-      <c r="O49" s="3" t="n"/>
-      <c r="P49" s="3" t="n"/>
-      <c r="Q49" s="3" t="n"/>
-      <c r="R49" s="3" t="n"/>
-      <c r="S49" s="3" t="n"/>
-      <c r="T49" s="3" t="inlineStr">
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="n"/>
+      <c r="Q50" s="3" t="n"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U49" s="3" t="n"/>
-      <c r="V49" s="3" t="n"/>
-      <c r="W49" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="n"/>
+      <c r="W50" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000211</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>study identification</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="inlineStr">
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S50" s="2" t="n"/>
-      <c r="T50" s="2" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="n"/>
+      <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
-      <c r="W50" s="2" t="inlineStr">
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
+      <c r="W51" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>OPMI:0000327</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>study status</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="n"/>
-      <c r="Q51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="n"/>
+      <c r="N52" s="3" t="n"/>
+      <c r="O52" s="3" t="n"/>
+      <c r="P52" s="3" t="n"/>
+      <c r="Q52" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R51" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S51" s="3" t="n"/>
-      <c r="T51" s="3" t="inlineStr">
+      <c r="R52" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U51" s="3" t="n"/>
-      <c r="V51" s="3" t="n"/>
-      <c r="W51" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="U52" s="3" t="n"/>
+      <c r="V52" s="3" t="n"/>
+      <c r="W52" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>IAO:00000300</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001297 </t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>wash-out period</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="inlineStr">
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
+      <c r="O54" s="3" t="n"/>
+      <c r="P54" s="3" t="n"/>
+      <c r="Q54" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R53" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S53" s="3" t="n"/>
-      <c r="T53" s="3" t="inlineStr">
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U53" s="3" t="n"/>
-      <c r="V53" s="3" t="n"/>
-      <c r="W53" s="3" t="inlineStr">
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="n"/>
+      <c r="W54" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,76 +623,72 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000170</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>author email address textual entity</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the email address of an author of a publication.</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR2</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000240</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>attention management control arm</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where the same dose of interpersonal interaction is provided as in the intervention group, but without any additional content from the intervention.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Attention control</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6858509/</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000107</t>
+          <t>GMHO:0000170</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>author identification</t>
+          <t>author email address textual entity</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
+          <t>A textual entity documenting the email address of an author of a publication.</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -706,11 +702,7 @@
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
+      <c r="K4" s="3" t="n"/>
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="3" t="n"/>
       <c r="N4" s="3" t="n"/>
@@ -718,7 +710,7 @@
       <c r="P4" s="3" t="n"/>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1; LSR2</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
@@ -736,29 +728,29 @@
       <c r="V4" s="3" t="n"/>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000108</t>
+          <t>GMHO:0000107</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>blinding data analysts of intervention arm</t>
+          <t>author identification</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
+          <t xml:space="preserve">A textual entity intended to identify a particular author. </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>blinding process</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E5" s="3" t="n"/>
@@ -767,7 +759,11 @@
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="n"/>
       <c r="M5" s="3" t="n"/>
       <c r="N5" s="3" t="n"/>
@@ -775,7 +771,7 @@
       <c r="P5" s="3" t="n"/>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
@@ -793,24 +789,24 @@
       <c r="V5" s="3" t="n"/>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000109</t>
+          <t>GMHO:0000108</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>blinding intervention source about intervention arm</t>
+          <t>blinding data analysts of intervention arm</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
+          <t>A blinding process in which the data analysts are not informed about intervention arm assignments until after the data analysis is completed.</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -857,17 +853,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000110</t>
+          <t>GMHO:0000109</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>blinding outcome assessor of intervention arm</t>
+          <t>blinding intervention source about intervention arm</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
+          <t>A blinding process in which sources delivering the intervention are not informed about which of two or more interventions they are delivering until after an endpoint has been reached.</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -880,11 +876,7 @@
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
       <c r="M7" s="3" t="n"/>
@@ -918,17 +910,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000111</t>
+          <t>GMHO:0000110</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>blinding participant about intervention arm</t>
+          <t>blinding outcome assessor of intervention arm</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+          <t>A blinding process in which the outcome assessors are not informed about which of two or more interventions they are collecting data about until after an endpoint has been reached.</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -941,7 +933,11 @@
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
       <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="n"/>
       <c r="M8" s="3" t="n"/>
@@ -975,22 +971,22 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000112</t>
+          <t>GMHO:0000111</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
+          <t>blinding participant about intervention arm</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>A blinding process in which participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
           <t>blinding process</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
         </is>
       </c>
       <c r="E9" s="3" t="n"/>
@@ -1032,22 +1028,22 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001257</t>
+          <t>GMHO:0000112</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>case-control study design</t>
+          <t>blinding process</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
+          <t>A planned process in which information about study arm assignment is withheld from people until they completed their role in the study's data collection or analysis has ended.</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E10" s="3" t="n"/>
@@ -1089,31 +1085,27 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001277</t>
+          <t>ADDICTO:0001257</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>cluster randomised controlled trial design</t>
+          <t>case-control study design</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
+          <t>A non-interventional study design in which study participants who have been identified as having (case) or not having (control) some characteristic of interest are compared on other characteristics to establish whether these are associated with being a case or control.</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>non-interventional study design</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
-        </is>
-      </c>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
       <c r="J11" s="3" t="n"/>
@@ -1125,7 +1117,7 @@
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
@@ -1150,27 +1142,31 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>ADDICTO:0001277</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>cluster randomised controlled trial design</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A randomised controlled trial design in which pre-existing groups of participants are randomly allocated to intervention arms</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>geographical location</t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>cRCT, CRT, cluster-randomised controlled intervention trial, cluster-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
@@ -1182,7 +1178,7 @@
       <c r="P12" s="3" t="n"/>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
@@ -1205,88 +1201,76 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001255 </t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>cross over design</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="3" t="n"/>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000122</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>A study arm designation as a comparator to some intervention arm.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>study arm</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000114</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>cross over randomised controlled trial design</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "cross over design"</t>
-        </is>
-      </c>
+          <t>geographical location</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
@@ -1300,7 +1284,7 @@
       <c r="P14" s="3" t="n"/>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R14" s="3" t="inlineStr">
@@ -1323,216 +1307,220 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001255 </t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>cross over design</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>A mixed study design in which two or more groups experience the same study processes but in a different order.</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>mixed study design</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000114</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>cross over randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>A randomised controlled trial design in which participants in two or more groups experience the same intervention arms but in a different order.</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "cross over design"</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000261</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>digital object identifier</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>A textual entity that refers to the digital object identifier of a research study.</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="4" t="n"/>
+      <c r="I17" s="4" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="4" t="n"/>
+      <c r="N17" s="4" t="n"/>
+      <c r="O17" s="4" t="n"/>
+      <c r="P17" s="4" t="n"/>
+      <c r="Q17" s="4" t="n"/>
+      <c r="R17" s="4" t="n"/>
+      <c r="S17" s="4" t="n"/>
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="U17" s="4" t="n"/>
+      <c r="V17" s="4" t="n"/>
+      <c r="W17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000210</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>duration between baseline and post-intervention measurement</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the time of data collection for pre-intervention data and post-intervention data in a study.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>IAO:0000624</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>funding source declaration textual entity</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the source of funding that supported some study.</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="n"/>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U17" s="3" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>IAO:0000303</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>institutional identification</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>A textual entity intended to identify a particular institution.</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U18" s="3" t="n"/>
-      <c r="V18" s="3" t="n"/>
-      <c r="W18" s="3" t="inlineStr">
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1541,22 +1529,22 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>IAO:0000624</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">intervention evaluation study </t>
+          <t>funding source declaration textual entity</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A textual entity documenting the source of funding that supported some study.</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>textual entity</t>
         </is>
       </c>
       <c r="E19" s="3" t="n"/>
@@ -1573,7 +1561,7 @@
       <c r="P19" s="3" t="n"/>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
@@ -1596,165 +1584,175 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>IAO:0000303</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>institutional identification</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>A textual entity intended to identify a particular institution.</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="n"/>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U20" s="3" t="n"/>
+      <c r="V20" s="3" t="n"/>
+      <c r="W20" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:038000</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention evaluation study </t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="n"/>
+      <c r="V21" s="3" t="n"/>
+      <c r="W21" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000216</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about the likelihood of the intervention evaluation finding misrepresenting the intervention outcome.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="inlineStr">
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001267</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A study design that includes specification of some intervention as part of the study process.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>controlled trial, study with at least one comparator group</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000171</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>language of document</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that is the language used to express the information in a document.</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="n"/>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="n"/>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S22" s="3" t="n"/>
-      <c r="T22" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U22" s="3" t="n"/>
-      <c r="V22" s="3" t="n"/>
-      <c r="W22" s="3" t="inlineStr">
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
+      <c r="W22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1763,218 +1761,200 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>ADDICTO:0001267</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A study design that includes specification of some intervention as part of the study process.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>controlled trial, study with at least one comparator group</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000171</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>language of document</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that is the language used to express the information in a document.</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U24" s="3" t="n"/>
+      <c r="V24" s="3" t="n"/>
+      <c r="W24" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>IAO:0000109</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>IAO:0000003</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>measurement unit label</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>A measurement unit label is as a label that is part of a scalar measurement datum and denotes a unit of measure.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>datum label</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR3</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>External</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001265</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>mixed study design</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="n"/>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="n"/>
-      <c r="L25" s="3" t="n"/>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
-      <c r="O25" s="3" t="n"/>
-      <c r="P25" s="3" t="n"/>
-      <c r="Q25" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R25" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S25" s="3" t="n"/>
-      <c r="T25" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U25" s="3" t="n"/>
-      <c r="V25" s="3" t="n"/>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000116</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>n-of-1 randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
-      <c r="H26" s="3" t="n"/>
-      <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
-      <c r="P26" s="3" t="n"/>
-      <c r="Q26" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R26" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S26" s="3" t="n"/>
-      <c r="T26" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U26" s="3" t="n"/>
-      <c r="V26" s="3" t="n"/>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001292</t>
+          <t>ADDICTO:0001265</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study design</t>
+          <t>mixed study design</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
+          <t>A study design in which measurements taken on two or more groups of study participants at two or more times are compared allowing differences to be assessed between groups and over time.</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E27" s="3" t="n"/>
@@ -2016,30 +1996,38 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001258</t>
+          <t>GMHO:0000116</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>non-interventional study design</t>
+          <t>n-of-1 randomised controlled trial design</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+          <t>A randomised controlled trial design involving multiple repeated measurements taken in each of two or more intervention arms, facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant.</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "n-of-1 study design"</t>
+        </is>
+      </c>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
-      <c r="J28" s="3" t="n"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K28" s="3" t="n"/>
       <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
@@ -2073,22 +2061,22 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000117</t>
+          <t>ADDICTO:0001292</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>number of intervention arms</t>
+          <t>n-of-1 study design</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of intervention groups in a study.</t>
+          <t xml:space="preserve">A repeated measures study design involving multiple repeated measurements taken in each of two or more conditions facilitating inferential statistical analyses to be undertaken to output statistical parameters from data sets for each individual participant. </t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="E29" s="3" t="n"/>
@@ -2097,12 +2085,7 @@
       <c r="H29" s="3" t="n"/>
       <c r="I29" s="3" t="n"/>
       <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
-</t>
-        </is>
-      </c>
+      <c r="K29" s="3" t="n"/>
       <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
       <c r="N29" s="3" t="n"/>
@@ -2110,7 +2093,7 @@
       <c r="P29" s="3" t="n"/>
       <c r="Q29" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R29" s="3" t="inlineStr">
@@ -2128,239 +2111,232 @@
       <c r="V29" s="3" t="n"/>
       <c r="W29" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001258</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>non-interventional study design</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>A study design in which study participants are not planned to experience an intervention as a part of the study process.</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
+      <c r="L30" s="3" t="n"/>
+      <c r="M30" s="3" t="n"/>
+      <c r="N30" s="3" t="n"/>
+      <c r="O30" s="3" t="n"/>
+      <c r="P30" s="3" t="n"/>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U30" s="3" t="n"/>
+      <c r="V30" s="3" t="n"/>
+      <c r="W30" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000117</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>number of intervention arms</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of intervention groups in a study.</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3059315/
+</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="n"/>
+      <c r="M31" s="3" t="n"/>
+      <c r="N31" s="3" t="n"/>
+      <c r="O31" s="3" t="n"/>
+      <c r="P31" s="3" t="n"/>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U31" s="3" t="n"/>
+      <c r="V31" s="3" t="n"/>
+      <c r="W31" s="3" t="inlineStr">
+        <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000237</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>number of sequential treatments</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>A data item about the number of sequential treatments delivered to participants in a study.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="inlineStr">
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="n"/>
-      <c r="T30" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
-      <c r="W30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0500006</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>parallel group design</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="n"/>
-      <c r="L32" s="3" t="n"/>
-      <c r="M32" s="3" t="n"/>
-      <c r="N32" s="3" t="n"/>
-      <c r="O32" s="3" t="n"/>
-      <c r="P32" s="3" t="n"/>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S32" s="3" t="n"/>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U32" s="3" t="n"/>
-      <c r="V32" s="3" t="n"/>
-      <c r="W32" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000121</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>parallel randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>"randomised controlled trial design" AND "parallel group design"</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
-      <c r="H33" s="3" t="n"/>
-      <c r="I33" s="3" t="n"/>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="n"/>
-      <c r="L33" s="3" t="n"/>
-      <c r="M33" s="3" t="n"/>
-      <c r="N33" s="3" t="n"/>
-      <c r="O33" s="3" t="n"/>
-      <c r="P33" s="3" t="n"/>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R33" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S33" s="3" t="n"/>
-      <c r="T33" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U33" s="3" t="n"/>
-      <c r="V33" s="3" t="n"/>
-      <c r="W33" s="3" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2369,22 +2345,22 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>OBCS:0000024</t>
+          <t>OBI:0500006</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>power calculation</t>
+          <t>parallel group design</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
+          <t>A parallel group design or independent measure design is a study design which uses unique experimental unit each experimental group, in other word no two individuals are shared between experimental groups, hence also known as parallel group design.</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>data transformation</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="E34" s="3" t="n"/>
@@ -2392,7 +2368,11 @@
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
-      <c r="J34" s="3" t="n"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K34" s="3" t="n"/>
       <c r="L34" s="3" t="n"/>
       <c r="M34" s="3" t="n"/>
@@ -2401,7 +2381,7 @@
       <c r="P34" s="3" t="n"/>
       <c r="Q34" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R34" s="3" t="inlineStr">
@@ -2426,30 +2406,38 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000119</t>
+          <t>GMHO:0000121</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>pre-registered plan specification source</t>
+          <t>parallel randomised controlled trial design</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+          <t>A randomised controlled trial design in which no two individuals are shared between intervention arms.</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>citation</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="n"/>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>"randomised controlled trial design" AND "parallel group design"</t>
+        </is>
+      </c>
       <c r="F35" s="3" t="n"/>
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
       <c r="K35" s="3" t="n"/>
       <c r="L35" s="3" t="n"/>
       <c r="M35" s="3" t="n"/>
@@ -2458,7 +2446,7 @@
       <c r="P35" s="3" t="n"/>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
@@ -2483,22 +2471,22 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000118</t>
+          <t>OBCS:0000024</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>publication from same research project</t>
+          <t>power calculation</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
+          <t>A data transformation that is used to calculate the power of a statistical analysis.</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>data transformation</t>
         </is>
       </c>
       <c r="E36" s="3" t="n"/>
@@ -2507,11 +2495,7 @@
       <c r="H36" s="3" t="n"/>
       <c r="I36" s="3" t="n"/>
       <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>"Information Artifact Ontology (IAO)"</t>
-        </is>
-      </c>
+      <c r="K36" s="3" t="n"/>
       <c r="L36" s="3" t="n"/>
       <c r="M36" s="3" t="n"/>
       <c r="N36" s="3" t="n"/>
@@ -2519,7 +2503,7 @@
       <c r="P36" s="3" t="n"/>
       <c r="Q36" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="R36" s="3" t="inlineStr">
@@ -2537,66 +2521,62 @@
       <c r="V36" s="3" t="n"/>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000120</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>publication year textual entity</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A textual entity documenting the year in which some study was published.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>publication year</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000119</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>pre-registered plan specification source</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Formal citation for a plan specification of the study published as protocol or trial registration.</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>citation</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="n"/>
+      <c r="N37" s="3" t="n"/>
+      <c r="O37" s="3" t="n"/>
+      <c r="P37" s="3" t="n"/>
+      <c r="Q37" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="n"/>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
-      <c r="W37" s="2" t="inlineStr">
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U37" s="3" t="n"/>
+      <c r="V37" s="3" t="n"/>
+      <c r="W37" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2605,35 +2585,35 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001278 </t>
+          <t>GMHO:0000118</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>quasi-randomised controlled trial design</t>
+          <t>publication from same research project</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
+          <t>A related work textual entity that discusses work from other publications done as part of the same research project as the work reported in a document.</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>interventional study design</t>
+          <t>related work textual entity</t>
         </is>
       </c>
       <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>qRCT, quasi-randomised controlled trial</t>
-        </is>
-      </c>
+      <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
       <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="n"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>"Information Artifact Ontology (IAO)"</t>
+        </is>
+      </c>
       <c r="L38" s="3" t="n"/>
       <c r="M38" s="3" t="n"/>
       <c r="N38" s="3" t="n"/>
@@ -2641,7 +2621,7 @@
       <c r="P38" s="3" t="n"/>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R38" s="3" t="inlineStr">
@@ -2659,66 +2639,66 @@
       <c r="V38" s="3" t="n"/>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001263</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RCT, randomised controlled trial </t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
-      <c r="O39" s="3" t="n"/>
-      <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000120</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>publication year textual entity</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A textual entity documenting the year in which some study was published.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>publication year</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R39" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S39" s="3" t="n"/>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="n"/>
-      <c r="V39" s="3" t="n"/>
-      <c r="W39" s="3" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="n"/>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
+      <c r="W39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2727,27 +2707,31 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>IAO:0000640</t>
+          <t xml:space="preserve">ADDICTO:0001278 </t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>related work textual entity</t>
+          <t>quasi-randomised controlled trial design</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+          <t>An interventional study design in which participants are allocated to receive one or two or more interventions or no intervention using a quasi-random process.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="n"/>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>qRCT, quasi-randomised controlled trial</t>
+        </is>
+      </c>
       <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
@@ -2759,10 +2743,14 @@
       <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="n"/>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="inlineStr">
         <is>
@@ -2780,27 +2768,31 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001262 </t>
+          <t>ADDICTO:0001263</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">repeated measure design </t>
+          <t>randomised controlled trial design</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+          <t>An interventional study design in which participants are randomly allocated to receive one of two or more interventions or no intervention using a study randomisation process.</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="n"/>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCT, randomised controlled trial </t>
+        </is>
+      </c>
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
@@ -2812,7 +2804,7 @@
       <c r="P41" s="3" t="n"/>
       <c r="Q41" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="R41" s="3" t="inlineStr">
@@ -2835,141 +2827,129 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000217</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with intervention</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>IAO:0000640</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>related work textual entity</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>A textual entity that discusses work from other publications and expresses their relevancy to the content of a document.</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="N42" s="3" t="n"/>
+      <c r="O42" s="3" t="n"/>
+      <c r="P42" s="3" t="n"/>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="n"/>
+      <c r="W42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001262 </t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repeated measure design </t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances are compared.</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="n"/>
+      <c r="N43" s="3" t="n"/>
+      <c r="O43" s="3" t="n"/>
+      <c r="P43" s="3" t="n"/>
+      <c r="Q43" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="n"/>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
-      <c r="W42" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000218</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>risk of bias associated with measurement of outcome data</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>LSR2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="n"/>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U43" s="3" t="n"/>
+      <c r="V43" s="3" t="n"/>
+      <c r="W43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000219</t>
+          <t>GMHO:0000217</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with missing outcome data</t>
+          <t>risk of bias associated with intervention</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+          <t>An intervention evaluation study risk of bias or error associated with the delivery of the  intervention.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -3020,17 +3000,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000220</t>
+          <t>GMHO:0000218</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>risk of bias associated with selective outcome reporting</t>
+          <t>risk of bias associated with measurement of outcome data</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+          <t>An intervention evaluation study risk of bias or error associated with how outcome data was measured in a study.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -3056,7 +3036,7 @@
       <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR2; LSR 3</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
@@ -3074,349 +3054,365 @@
       <c r="V45" s="2" t="n"/>
       <c r="W45" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000219</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with missing outcome data</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with missing outcome data in a study.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="n"/>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000220</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>risk of bias associated with selective outcome reporting</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study risk of bias or error associated with selective reporting of outcomes in the study report.</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="n"/>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001271 </t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>sequential multiple randomised controlled trial design</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>randomised controlled trial design</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
-      <c r="H46" s="3" t="n"/>
-      <c r="I46" s="3" t="n"/>
-      <c r="J46" s="3" t="n"/>
-      <c r="K46" s="3" t="n"/>
-      <c r="L46" s="3" t="n"/>
-      <c r="M46" s="3" t="n"/>
-      <c r="N46" s="3" t="n"/>
-      <c r="O46" s="3" t="n"/>
-      <c r="P46" s="3" t="n"/>
-      <c r="Q46" s="3" t="inlineStr">
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="n"/>
+      <c r="L48" s="3" t="n"/>
+      <c r="M48" s="3" t="n"/>
+      <c r="N48" s="3" t="n"/>
+      <c r="O48" s="3" t="n"/>
+      <c r="P48" s="3" t="n"/>
+      <c r="Q48" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R46" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S46" s="3" t="n"/>
-      <c r="T46" s="3" t="inlineStr">
+      <c r="R48" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U46" s="3" t="n"/>
-      <c r="V46" s="3" t="n"/>
-      <c r="W46" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="U48" s="3" t="n"/>
+      <c r="V48" s="3" t="n"/>
+      <c r="W48" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001279</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>single-arm intervention design</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>An interventional study design in which all the participants receive the same type of intervention.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>interventional study design</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>intervention without comparator group</t>
         </is>
       </c>
-      <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="n"/>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="n"/>
-      <c r="N47" s="3" t="n"/>
-      <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="3" t="inlineStr">
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="n"/>
+      <c r="N49" s="3" t="n"/>
+      <c r="O49" s="3" t="n"/>
+      <c r="P49" s="3" t="n"/>
+      <c r="Q49" s="3" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="R47" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S47" s="3" t="n"/>
-      <c r="T47" s="3" t="inlineStr">
+      <c r="R49" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U47" s="3" t="n"/>
-      <c r="V47" s="3" t="n"/>
-      <c r="W47" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="U49" s="3" t="n"/>
+      <c r="V49" s="3" t="n"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr">
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR 3</t>
         </is>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
-      <c r="T48" s="2" t="inlineStr">
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
+      <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
+      <c r="W50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>study design</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A plan specification comprised of protocols (which may specify how and what kinds of data will be gathered) that are executed as part of an investigation and is realized during a study design execution.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>research methods</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>ICO:0000087</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>study duration measurement</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>A time measurement datum that measures the duration of a study.</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="n"/>
-      <c r="Q50" s="3" t="n"/>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="n"/>
-      <c r="T50" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
-      <c r="W50" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000211</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>study identification</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>textual entity</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="n"/>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="S51" s="2" t="n"/>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
-      <c r="W51" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>OPMI:0000327</t>
+          <t>ICO:0000087</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>study status</t>
+          <t>study duration measurement</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
+          <t>A time measurement datum that measures the duration of a study.</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E52" s="3" t="n"/>
@@ -3431,16 +3427,8 @@
       <c r="N52" s="3" t="n"/>
       <c r="O52" s="3" t="n"/>
       <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="R52" s="3" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
+      <c r="Q52" s="3" t="n"/>
+      <c r="R52" s="3" t="n"/>
       <c r="S52" s="3" t="n"/>
       <c r="T52" s="3" t="inlineStr">
         <is>
@@ -3456,42 +3444,57 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>IAO:00000300</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000211</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>study identification</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A textual entity intended to identify a particular study. </t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Research methods</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="n"/>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
+      <c r="W53" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3500,22 +3503,22 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDICTO:0001297 </t>
+          <t>OPMI:0000327</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>wash-out period</t>
+          <t>study status</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+          <t>The current stage of a clinical study and whether it is or will be open for enrolment.</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E54" s="3" t="n"/>
@@ -3523,11 +3526,7 @@
       <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>research methods</t>
-        </is>
-      </c>
+      <c r="J54" s="3" t="n"/>
       <c r="K54" s="3" t="n"/>
       <c r="L54" s="3" t="n"/>
       <c r="M54" s="3" t="n"/>
@@ -3558,6 +3557,158 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IAO:00000300</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000128</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>treatment as usual control arm</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr"/>
+      <c r="H56" s="4" t="inlineStr"/>
+      <c r="I56" s="4" t="inlineStr"/>
+      <c r="J56" s="4" t="inlineStr"/>
+      <c r="K56" s="4" t="inlineStr"/>
+      <c r="L56" s="4" t="inlineStr"/>
+      <c r="M56" s="4" t="inlineStr"/>
+      <c r="N56" s="4" t="inlineStr"/>
+      <c r="O56" s="4" t="inlineStr"/>
+      <c r="P56" s="4" t="inlineStr"/>
+      <c r="Q56" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr"/>
+      <c r="S56" s="4" t="inlineStr"/>
+      <c r="T56" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U56" s="4" t="inlineStr"/>
+      <c r="V56" s="4" t="inlineStr"/>
+      <c r="W56" s="4" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001297 </t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>research methods</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="N57" s="3" t="n"/>
+      <c r="O57" s="3" t="n"/>
+      <c r="P57" s="3" t="n"/>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="R57" s="3" t="inlineStr">
+        <is>
+          <t>Research methods</t>
+        </is>
+      </c>
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="n"/>
+      <c r="W57" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Research methods/Research methods.xlsx
+++ b/Research methods/Research methods.xlsx
@@ -2406,7 +2406,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IAO:00000300</t>
+          <t>IAO:0000300</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
